--- a/Output_all/GLM/Betaregression_Mod_Table.xlsx
+++ b/Output_all/GLM/Betaregression_Mod_Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="12820" yWindow="460" windowWidth="25640" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="31580" windowHeight="19180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Other Genotypes" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="55">
   <si>
     <t>Estimate</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Best Fir Model Mod3</t>
+  </si>
+  <si>
+    <t>Shape</t>
   </si>
 </sst>
 </file>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F24" workbookViewId="0">
-      <selection activeCell="Z37" sqref="W37:Z37"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3752,8 +3755,26 @@
       <c r="Z46" s="9"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="E47" s="11"/>
-      <c r="H47" s="9"/>
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>1.251E-2</v>
+      </c>
+      <c r="E47" s="15">
+        <v>0.39151999999999998</v>
+      </c>
+      <c r="F47">
+        <f>EXP(B28+B47)</f>
+        <v>1.1567128006178731E-2</v>
+      </c>
+      <c r="G47">
+        <f>(F47-F28)/F28</f>
+        <v>1.2588577375778632E-2</v>
+      </c>
+      <c r="H47" s="9">
+        <v>1.2588577375778632E-2</v>
+      </c>
       <c r="J47"/>
       <c r="Q47" s="9"/>
       <c r="Z47" s="9"/>
